--- a/履歴書_劉室成.xlsx
+++ b/履歴書_劉室成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LIUSHICHENG\个人资料\大成\简历\git-resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17FA7D-CA06-4B8B-ACF3-F76226FB883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2264B1-41F0-4D2E-99C9-9E9A559CA26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3372" yWindow="1122" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="業務履歴書" sheetId="7" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>国分寺駅</t>
+    <t>西国分寺駅</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5978,8 +5978,8 @@
   </sheetPr>
   <dimension ref="A1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15:AK15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B100" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="AD106" sqref="AD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
